--- a/data/trans_bre/P17G_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P17G_R-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.13242017052566</v>
+        <v>-4.325963408736815</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.81054200402818</v>
+        <v>-16.21753539234405</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.644696303160962</v>
+        <v>-5.315635701070222</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.46674480837225</v>
+        <v>-13.06145729931396</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.03756712156119875</v>
+        <v>-0.05161069127931672</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1821311865957499</v>
+        <v>-0.1820986856517795</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.0798941795852694</v>
+        <v>-0.06314727621678308</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.152166164700523</v>
+        <v>-0.1622437150422069</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.95958739396017</v>
+        <v>22.20480637351003</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.17006223880786</v>
+        <v>11.27558820588844</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.832842794058</v>
+        <v>17.9559356755785</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.503997624519444</v>
+        <v>7.120065685169593</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3379301553333974</v>
+        <v>0.3333469450527097</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.164262960350981</v>
+        <v>0.1482423004794007</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2403048558697432</v>
+        <v>0.2589412688928707</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1080793099580839</v>
+        <v>0.09706711517078973</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.24512195653125</v>
+        <v>-9.492499754046195</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2759080272461676</v>
+        <v>0.4102696302252665</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.260198802454024</v>
+        <v>-3.363299638140486</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-11.1480430694111</v>
+        <v>-10.13657383506894</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1096912528871984</v>
+        <v>-0.1017436290271268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00482582265895974</v>
+        <v>0.005883436909177343</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03567249178272844</v>
+        <v>-0.03785046634141883</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1331742290656499</v>
+        <v>-0.120982233905909</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.982111294777757</v>
+        <v>10.4434426725547</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>23.00879816044198</v>
+        <v>23.56922052069979</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.7952784221236</v>
+        <v>16.41472890263873</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.857364660869196</v>
+        <v>10.74551711553709</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.123430176011048</v>
+        <v>0.1278119692977223</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3381479021359949</v>
+        <v>0.339901996886786</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2389015510362125</v>
+        <v>0.215754491575004</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.139132675043918</v>
+        <v>0.1482618817704245</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.5159707648211942</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-5.626871220541318</v>
+        <v>-5.626871220541307</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02045741216339327</v>
@@ -849,7 +849,7 @@
         <v>-0.005417978942671554</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.05803945815225416</v>
+        <v>-0.05803945815225404</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.400549343269779</v>
+        <v>-8.868310870761038</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.470225058363461</v>
+        <v>-9.916243066352374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.114133815517272</v>
+        <v>-8.96897550298495</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-13.78956335610182</v>
+        <v>-13.16841781565521</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1021197112520345</v>
+        <v>-0.09343813487728171</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.09657178647407991</v>
+        <v>-0.1017047812442475</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.09657514185705589</v>
+        <v>-0.09245600332874761</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1383044458236708</v>
+        <v>-0.1351447409211572</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.334269752378569</v>
+        <v>10.07215738875847</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7025121362418686</v>
+        <v>0.7700729369053545</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.094453988142614</v>
+        <v>5.144799786635596</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5985343968440182</v>
+        <v>1.018069587391985</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1081764875541691</v>
+        <v>0.1158625206497355</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007101475910618782</v>
+        <v>0.007799986301717392</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0546722951472059</v>
+        <v>0.05550094813602759</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.007062676662215341</v>
+        <v>0.01029049240969702</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.006204017060385451</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.008299212169180665</v>
+        <v>0.008299212169180663</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.329878514921462</v>
+        <v>-5.420398333812702</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.2494233933076177</v>
+        <v>-0.2142245979445458</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.350504331895106</v>
+        <v>-3.259327747438792</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.596684707887588</v>
+        <v>-3.643977145809482</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05653691238931158</v>
+        <v>-0.05714328980429805</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.002587734855358923</v>
+        <v>-0.002154616659259922</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03458002415626029</v>
+        <v>-0.03384568806343597</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03729454511598465</v>
+        <v>-0.03754559160992814</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.88873945326501</v>
+        <v>3.741354028114859</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.926819449577742</v>
+        <v>4.235198421658295</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.45303745206216</v>
+        <v>4.375207249005068</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.701727675803816</v>
+        <v>5.658878591370961</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04166472226109225</v>
+        <v>0.04122614353390457</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04111487047223633</v>
+        <v>0.04429709538758588</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04870422370317651</v>
+        <v>0.04744948406295584</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06363118125705103</v>
+        <v>0.06316770525823191</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.310350666268322</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-3.457713187758993</v>
+        <v>-3.457713187758971</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03220145799914468</v>
@@ -1049,7 +1049,7 @@
         <v>-0.0032295017712575</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.03486841461840318</v>
+        <v>-0.03486841461840296</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.521415223683639</v>
+        <v>-1.264657274134604</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.203979647227356</v>
+        <v>-1.39270920695768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.090810722382691</v>
+        <v>-4.072543690750035</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.015307771613107</v>
+        <v>-5.985992081028621</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.01567270774869297</v>
+        <v>-0.01300190722258975</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.01204385109410614</v>
+        <v>-0.01409502360975687</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.04153741020910632</v>
+        <v>-0.04125793821738302</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.06045990043171491</v>
+        <v>-0.06010704509149667</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.842031512896655</v>
+        <v>9.400850028562669</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.081249055332776</v>
+        <v>2.813179736744411</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.271057002535258</v>
+        <v>3.932277832051024</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.5235172917828411</v>
+        <v>-0.4537772928925929</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09910776018313147</v>
+        <v>0.1048586406038502</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03202547309806985</v>
+        <v>0.02878032065883462</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04567435659514687</v>
+        <v>0.04183105807576613</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.005469077546325008</v>
+        <v>-0.004695116713563757</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>6.218444437835213</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8.145445750692183</v>
+        <v>8.145445750692204</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.01152462950837389</v>
@@ -1149,7 +1149,7 @@
         <v>0.069847291083338</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.09502603601668939</v>
+        <v>0.09502603601668969</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.133512926875145</v>
+        <v>-5.345080497855292</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.673363939412896</v>
+        <v>2.049142811215175</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.421698982203934</v>
+        <v>-1.78824650421838</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-7.014766634866636</v>
+        <v>-7.33583178446601</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.05146400799457838</v>
+        <v>-0.0534882691530138</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02753710329239406</v>
+        <v>0.02164842033910723</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.01473134705649893</v>
+        <v>-0.0180584782202602</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.07116975974607177</v>
+        <v>-0.07255548571975269</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.59038784987696</v>
+        <v>10.64757849635596</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>31.06398935540179</v>
+        <v>29.2465101134607</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19.23160617338986</v>
+        <v>17.67656480118778</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>48.62587181057474</v>
+        <v>41.54974717003084</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1531223871252581</v>
+        <v>0.1232047933666575</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4630488872230642</v>
+        <v>0.4298247152752384</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2521959568898562</v>
+        <v>0.225380223969729</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.001054020105107</v>
+        <v>0.7875377298783069</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>2.5340183515418</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7330951866226898</v>
+        <v>0.7330951866227009</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03433221684107342</v>
@@ -1249,7 +1249,7 @@
         <v>0.02775437410534618</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.008215232647043517</v>
+        <v>0.008215232647043642</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4071195306566398</v>
+        <v>0.4843369631115752</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5409863900509719</v>
+        <v>0.6156080551499836</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1800798874367852</v>
+        <v>0.1752662160291597</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.474259978425799</v>
+        <v>-2.003052850923229</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.004436523169623113</v>
+        <v>0.005287479668419419</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005805943888868354</v>
+        <v>0.006793574103205918</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.001909256803732577</v>
+        <v>0.001358375340168424</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.02696597883174586</v>
+        <v>-0.02218763885905648</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.725724328473667</v>
+        <v>5.908671748716331</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.179533180059432</v>
+        <v>5.10361922171814</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.927704458039828</v>
+        <v>5.194654768276412</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.89517961553315</v>
+        <v>4.013124184535895</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06454121838326918</v>
+        <v>0.06687561619625203</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05686170706259065</v>
+        <v>0.0560435384469583</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05479003451044336</v>
+        <v>0.05770894693745091</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.04477913611173098</v>
+        <v>0.04614174306908186</v>
       </c>
     </row>
     <row r="25">
